--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2392.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2392.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.063629250005179</v>
+        <v>1.02953839302063</v>
       </c>
       <c r="B1">
-        <v>2.342153182376667</v>
+        <v>2.338687181472778</v>
       </c>
       <c r="C1">
-        <v>7.331759326150438</v>
+        <v>4.865468978881836</v>
       </c>
       <c r="D1">
-        <v>1.796381421885713</v>
+        <v>2.460928440093994</v>
       </c>
       <c r="E1">
-        <v>1.004580089922385</v>
+        <v>1.338848114013672</v>
       </c>
     </row>
   </sheetData>
